--- a/data/outputs/bounds.xlsx
+++ b/data/outputs/bounds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB71610-F70E-435C-AEC4-AC34C998D389}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD5832C-E6A2-4A40-8CD8-7A65BD7D2EBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7DB12AD-3AB7-4BA8-ACD6-B3E50F8C2E71}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{B7DB12AD-3AB7-4BA8-ACD6-B3E50F8C2E71}"/>
   </bookViews>
   <sheets>
     <sheet name="bnds" sheetId="1" r:id="rId1"/>
@@ -2781,7 +2781,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2837,18 +2837,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>1.02</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2881,7 +2881,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2892,24 +2892,24 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>1E-13</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>0.6</v>
+        <v>1E-13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/outputs/bounds.xlsx
+++ b/data/outputs/bounds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD5832C-E6A2-4A40-8CD8-7A65BD7D2EBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6072E415-6A0C-427F-BC46-97703D40CE4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{B7DB12AD-3AB7-4BA8-ACD6-B3E50F8C2E71}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7DB12AD-3AB7-4BA8-ACD6-B3E50F8C2E71}"/>
   </bookViews>
   <sheets>
     <sheet name="bnds" sheetId="1" r:id="rId1"/>
@@ -2781,14 +2781,14 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="C12" sqref="B12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2818,7 +2818,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="C3" s="2">
         <v>1.02</v>

--- a/data/outputs/bounds.xlsx
+++ b/data/outputs/bounds.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bloomberg\Documents\Projects\UPS_MV-git\data\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6072E415-6A0C-427F-BC46-97703D40CE4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7DB12AD-3AB7-4BA8-ACD6-B3E50F8C2E71}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="bnds" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <definedName name="Funded_Status_Loadings">'[1]Factor Loadings'!$B$8:$B$23</definedName>
     <definedName name="Liability_OAD">[1]Control!$B$6</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -92,7 +91,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000000000"/>
     <numFmt numFmtId="165" formatCode="0.00000000000000"/>
@@ -2777,11 +2776,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FE0D52-71C9-4191-B5F9-2D11F7CF4868}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="B12:C13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2876,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>1.02</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
